--- a/src/基础表格.xlsx
+++ b/src/基础表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>鸠江区三线水位测站记录情况登记表</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>昨日8时</t>
+  </si>
+  <si>
+    <t>上周8时</t>
+  </si>
+  <si>
+    <t>去年同期</t>
   </si>
   <si>
     <t>两比</t>
@@ -613,21 +619,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -651,6 +642,21 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -926,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,49 +969,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1013,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1333,23 +1345,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.75454545454545" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="6" width="11.8727272727273" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.2545454545455" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1360,8 +1372,10 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="14.25" customHeight="1" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1372,8 +1386,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
+    <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1392,291 +1408,327 @@
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="27"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
+    <row r="4" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A5" s="14">
+    <row r="5" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18">
         <f>D5-E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="I5" s="28">
         <v>44025</v>
       </c>
-      <c r="H5" s="20">
+      <c r="J5" s="29">
         <v>15.21</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A6" s="21">
+    <row r="6" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
-        <f t="shared" ref="F6:F14" si="0">D6-E6</f>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6:H14" si="0">D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="I6" s="28">
         <v>44033</v>
       </c>
-      <c r="H6" s="20">
+      <c r="J6" s="29">
         <v>12.76</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A7" s="21">
+    <row r="7" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
+      <c r="B7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="I7" s="28">
         <v>44033</v>
       </c>
-      <c r="H7" s="24">
+      <c r="J7" s="30">
         <v>12.72</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A8" s="21">
+    <row r="8" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18">
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="I8" s="28">
         <v>44029</v>
       </c>
-      <c r="H8" s="20">
+      <c r="J8" s="29">
         <v>13.19</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A9" s="21">
+    <row r="9" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="I9" s="28">
         <v>44033</v>
       </c>
-      <c r="H9" s="24">
+      <c r="J9" s="30">
         <v>12.72</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A10" s="21">
+    <row r="10" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="18">
+      <c r="B10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="I10" s="28">
         <v>44033</v>
       </c>
-      <c r="H10" s="24">
+      <c r="J10" s="30">
         <v>12.77</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A11" s="21">
+    <row r="11" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="18">
+      <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="I11" s="28">
         <v>44030</v>
       </c>
-      <c r="H11" s="24">
+      <c r="J11" s="30">
         <v>12.1</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A12" s="21">
+    <row r="12" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18">
+      <c r="B12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="I12" s="28">
         <v>44025</v>
       </c>
-      <c r="H12" s="24">
+      <c r="J12" s="30">
         <v>15.21</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A13" s="21">
+    <row r="13" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18">
+      <c r="B13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="I13" s="28">
         <v>44025</v>
       </c>
-      <c r="H13" s="24">
+      <c r="J13" s="30">
         <v>15.21</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A14" s="26">
+    <row r="14" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18">
+      <c r="B14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="I14" s="28">
         <v>44025</v>
       </c>
-      <c r="H14" s="24">
+      <c r="J14" s="30">
         <v>15.21</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+    <row r="15" s="2" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:8">
-      <c r="A16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+    <row r="16" s="2" customFormat="1" spans="1:10">
+      <c r="A16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
